--- a/ResultTFE/TFEResultIA.xlsx
+++ b/ResultTFE/TFEResultIA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B4779E-25BD-4FA0-BE75-CB8738AC198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AAA451-1E50-44E2-B554-E2ADC6F9320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="1305" windowWidth="21660" windowHeight="18360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27255" yWindow="825" windowWidth="24075" windowHeight="18360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChatGPT" sheetId="1" r:id="rId1"/>
     <sheet name="Google Bard" sheetId="3" r:id="rId2"/>
     <sheet name="Copilot" sheetId="4" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId4"/>
+    <sheet name="Moyenne" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="240">
   <si>
     <t>https://chat.openai.com/share/755c5856-958d-4a19-9a06-181af5b74b47</t>
   </si>
@@ -588,13 +588,184 @@
   </si>
   <si>
     <t>Copilot savait que j'étais sur Inginious: introduction à Python, et explique pas à pas ce qu'il faut faire pour résoudre l'exo</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>Google Bard</t>
+  </si>
+  <si>
+    <t>Copilot</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Total répandue Réussi</t>
+  </si>
+  <si>
+    <t>Total répandue</t>
+  </si>
+  <si>
+    <t>Total répandu non résolu</t>
+  </si>
+  <si>
+    <t>Total atypique</t>
+  </si>
+  <si>
+    <t>Résolu</t>
+  </si>
+  <si>
+    <t>Le b.a-b.a. du tableau</t>
+  </si>
+  <si>
+    <t>Un tableau pour la deux!</t>
+  </si>
+  <si>
+    <t>Accumulateur</t>
+  </si>
+  <si>
+    <t>Pythagore et ses triangles</t>
+  </si>
+  <si>
+    <t>https://inginious.org/course/exo7/Ch7Act1exo4</t>
+  </si>
+  <si>
+    <t>https://inginious.org/course/exo7/Ch7Act1exo1</t>
+  </si>
+  <si>
+    <t>https://inginious.org/course/exo7/Ch7Act1exo2</t>
+  </si>
+  <si>
+    <t>https://inginious.org/course/exo7/Ch7Act1exo3</t>
+  </si>
+  <si>
+    <t>Écriture dans un Fichier</t>
+  </si>
+  <si>
+    <t>Lecture dans un Fichier</t>
+  </si>
+  <si>
+    <t>Programmation objet : la classe !</t>
+  </si>
+  <si>
+    <t>Les bourses bien remplies</t>
+  </si>
+  <si>
+    <t>Héritage</t>
+  </si>
+  <si>
+    <t>https://inginious.org/course/exo7/Ch10Act1exo3</t>
+  </si>
+  <si>
+    <t>https://inginious.org/course/exo7/Ch10Act1exo1</t>
+  </si>
+  <si>
+    <t>https://inginious.org/course/exo7/Ch10Act1exo2</t>
+  </si>
+  <si>
+    <t>https://inginious.org/course/exo7/Ch9Act1exo1</t>
+  </si>
+  <si>
+    <t>https://inginious.org/course/exo7/Ch9Act1exo2</t>
+  </si>
+  <si>
+    <t>Ch7Act1exo1.txt</t>
+  </si>
+  <si>
+    <t>Ch7Act1exo2.txt</t>
+  </si>
+  <si>
+    <t>Ch7Act1exo3.txt</t>
+  </si>
+  <si>
+    <t>Ch7Act1exo4.txt</t>
+  </si>
+  <si>
+    <t>Ch9Act1exo1.txt</t>
+  </si>
+  <si>
+    <t>Ch9Act1exo2.txt</t>
+  </si>
+  <si>
+    <t>Ch10Act1exo1.txt</t>
+  </si>
+  <si>
+    <t>Ch10Act1exo2.txt</t>
+  </si>
+  <si>
+    <t>Ch10Act1exo3.txt</t>
+  </si>
+  <si>
+    <t>Utilise "with" pour ne pas à avoir à fermer le fichier =&gt; erreur close() not called</t>
+  </si>
+  <si>
+    <t>n'a pas corrigé l'orthographe alors qu'on voit cliarement la différence dans le feedback</t>
+  </si>
+  <si>
+    <t>https://g.co/bard/share/268f371bfb5c</t>
+  </si>
+  <si>
+    <t>https://g.co/bard/share/4364c9cfb69c</t>
+  </si>
+  <si>
+    <t>https://g.co/bard/share/068d70aa0181</t>
+  </si>
+  <si>
+    <t>https://g.co/bard/share/fa08ae117c87</t>
+  </si>
+  <si>
+    <t>https://g.co/bard/share/f3a575584a31</t>
+  </si>
+  <si>
+    <t>https://g.co/bard/share/ddddcd2e3981</t>
+  </si>
+  <si>
+    <t>https://g.co/bard/share/c4cbeab745dc</t>
+  </si>
+  <si>
+    <t>https://g.co/bard/share/a1a173de8896</t>
+  </si>
+  <si>
+    <t>https://g.co/bard/share/328e5b3daeed</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/2ca60206-35bd-400f-97fc-d86ff361c8a1</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/2075b6f1-226d-41a8-8f41-a85b97926187</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/9aea5c0a-ccb5-4e2d-8018-2e2b81c58741</t>
+  </si>
+  <si>
+    <t>À noter qu'il est le seul des 3 IA à vérifier si le tableau est bien de taille 3 #ProgrammationDefensive</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/09d28a50-5751-4d83-9c48-1bbc13acf6b6</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/80140e00-8822-4475-b0f4-39aa4ead997f</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/1dd66fc0-1d20-43b5-9373-ea9675365d66</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/8bc5acf8-16f8-45b8-a017-b13e72023414</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/3e609b4c-5f7c-45b3-a8ec-ed0fd4b5e22c</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/2481a442-6ebc-41a4-a3ff-ecc0f0088584</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,8 +815,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +844,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -739,6 +922,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1021,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,6 +1272,9 @@
       <c r="R1" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1101,6 +1298,9 @@
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1190,6 +1390,9 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1230,6 +1433,9 @@
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1253,6 +1459,9 @@
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1296,6 +1505,9 @@
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
@@ -1319,6 +1531,9 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1339,6 +1554,9 @@
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1359,6 +1577,9 @@
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
@@ -1378,7 +1599,10 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
@@ -1398,7 +1622,10 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1645,10 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
       <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1668,10 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
@@ -1458,32 +1691,35 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
+      <c r="G21" s="7"/>
       <c r="J21" s="1" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>60</v>
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>233</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8">
@@ -1493,117 +1729,126 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="J22" s="1" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8">
-        <v>1</v>
-      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="J23" s="1" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="12">
+      <c r="D24" s="8">
         <v>1</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="J24" s="1" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="12">
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="12">
+      <c r="D26" s="8">
         <v>1</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="J26" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="12">
+      <c r="E27" s="8">
         <v>1</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="J27" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="12">
@@ -1613,37 +1858,40 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="J28" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="12">
+        <v>1</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="12">
@@ -1653,65 +1901,66 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="J30" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="J31" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
       <c r="B32" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="7">
-        <v>0</v>
+      <c r="D32" s="12">
+        <v>1</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="12">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1</v>
-      </c>
-      <c r="I32" s="9">
-        <v>1</v>
-      </c>
+      <c r="G32" s="7"/>
       <c r="J32" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
       <c r="B33" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="12">
@@ -1721,17 +1970,20 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="J33" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
       <c r="B34" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="12">
@@ -1741,150 +1993,243 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="J34" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
       <c r="B35" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="12">
-        <v>1</v>
-      </c>
+      <c r="G35" s="7"/>
       <c r="J35" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="J37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="J38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="12">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="21">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="J40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="J41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="11">
-        <f>SUM(C42:G42)</f>
-        <v>33</v>
-      </c>
-      <c r="C42" s="14">
-        <f>SUM(C9:C41)</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="14">
-        <f t="shared" ref="D42:I42" si="0">SUM(D3:D41)</f>
-        <v>19</v>
-      </c>
-      <c r="E42" s="14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F42" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G42" s="14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H42" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I42" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="6"/>
+      <c r="J42" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="6"/>
+      <c r="J43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="6"/>
+      <c r="J44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
@@ -1908,37 +2253,95 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+    <row r="47" spans="1:14" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="11">
+        <f>SUM(C47:G47)</f>
+        <v>42</v>
+      </c>
+      <c r="C47" s="14">
+        <f>SUM(C9:C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="14">
+        <f t="shared" ref="D47:I47" si="0">SUM(D3:D46)</f>
+        <v>26</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G47" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H47" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I47" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <f>SUM(A1:A47)</f>
+        <v>31</v>
+      </c>
+      <c r="B49" s="6">
+        <v>25</v>
+      </c>
+      <c r="C49" s="6">
+        <f>A49-B49</f>
+        <v>6</v>
+      </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="E49" s="18">
+        <f>B47-A49</f>
+        <v>11</v>
+      </c>
+      <c r="F49" s="6">
+        <v>6</v>
+      </c>
+      <c r="G49" s="6">
+        <f>E49-F49</f>
+        <v>5</v>
+      </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -1948,7 +2351,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1958,7 +2361,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1968,7 +2371,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1978,7 +2381,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1988,7 +2391,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1998,7 +2401,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2007,6 +2410,56 @@
       <c r="G56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2029,21 +2482,21 @@
     <hyperlink ref="K18" r:id="rId17" xr:uid="{B4CC6465-1A23-410C-AF36-4E772D81090C}"/>
     <hyperlink ref="K19" r:id="rId18" xr:uid="{3848D979-F404-472E-B76C-E2888738636A}"/>
     <hyperlink ref="K20" r:id="rId19" xr:uid="{44E0575E-27AA-4B9E-B35E-64B3FD8AC718}"/>
-    <hyperlink ref="K21" r:id="rId20" xr:uid="{ADC489BF-D7CE-4CE9-9587-48243024A873}"/>
-    <hyperlink ref="K22" r:id="rId21" xr:uid="{D92B5BD2-252B-4AF0-B5BB-BB308C7F897A}"/>
-    <hyperlink ref="K23" r:id="rId22" xr:uid="{E234EB93-132F-4168-B28F-D1E40732A1D2}"/>
-    <hyperlink ref="K24" r:id="rId23" xr:uid="{F2C74315-36EE-49ED-BED8-DBB60A63BF12}"/>
-    <hyperlink ref="K25" r:id="rId24" xr:uid="{215135D2-8C4C-430D-AB9D-8962013EB489}"/>
-    <hyperlink ref="K26" r:id="rId25" xr:uid="{81C0F2DF-287F-41F7-91CF-EE522FD4C8E2}"/>
-    <hyperlink ref="K27" r:id="rId26" xr:uid="{C0EA955F-6F60-4B21-A8B2-640BAC924BB7}"/>
-    <hyperlink ref="K28" r:id="rId27" xr:uid="{C30C053A-D95B-4FF0-9404-5485258F7E0C}"/>
-    <hyperlink ref="K29" r:id="rId28" xr:uid="{97875912-6F0D-4637-A576-698850E6CFA2}"/>
-    <hyperlink ref="K30" r:id="rId29" xr:uid="{96D6851D-5AEB-4AD9-ACBB-F3B1F8B9ACDA}"/>
-    <hyperlink ref="K31" r:id="rId30" xr:uid="{173548B9-BA0B-43A3-802E-694289257ECC}"/>
-    <hyperlink ref="K32" r:id="rId31" xr:uid="{BD3F74BE-3B00-4785-9ED8-5DE4AA5729F3}"/>
-    <hyperlink ref="K33" r:id="rId32" xr:uid="{0C576858-6705-4BFE-A321-44F2E2724C84}"/>
-    <hyperlink ref="K34" r:id="rId33" xr:uid="{8A895233-277C-4A30-91FF-6F258CEE3420}"/>
-    <hyperlink ref="K35" r:id="rId34" xr:uid="{09437E8D-CDA7-4C47-96C0-2D60B5DD0A11}"/>
+    <hyperlink ref="K25" r:id="rId20" xr:uid="{ADC489BF-D7CE-4CE9-9587-48243024A873}"/>
+    <hyperlink ref="K26" r:id="rId21" xr:uid="{D92B5BD2-252B-4AF0-B5BB-BB308C7F897A}"/>
+    <hyperlink ref="K27" r:id="rId22" xr:uid="{E234EB93-132F-4168-B28F-D1E40732A1D2}"/>
+    <hyperlink ref="K28" r:id="rId23" xr:uid="{F2C74315-36EE-49ED-BED8-DBB60A63BF12}"/>
+    <hyperlink ref="K29" r:id="rId24" xr:uid="{215135D2-8C4C-430D-AB9D-8962013EB489}"/>
+    <hyperlink ref="K30" r:id="rId25" xr:uid="{81C0F2DF-287F-41F7-91CF-EE522FD4C8E2}"/>
+    <hyperlink ref="K31" r:id="rId26" xr:uid="{C0EA955F-6F60-4B21-A8B2-640BAC924BB7}"/>
+    <hyperlink ref="K32" r:id="rId27" xr:uid="{C30C053A-D95B-4FF0-9404-5485258F7E0C}"/>
+    <hyperlink ref="K33" r:id="rId28" xr:uid="{97875912-6F0D-4637-A576-698850E6CFA2}"/>
+    <hyperlink ref="K34" r:id="rId29" xr:uid="{96D6851D-5AEB-4AD9-ACBB-F3B1F8B9ACDA}"/>
+    <hyperlink ref="K35" r:id="rId30" xr:uid="{173548B9-BA0B-43A3-802E-694289257ECC}"/>
+    <hyperlink ref="K36" r:id="rId31" xr:uid="{BD3F74BE-3B00-4785-9ED8-5DE4AA5729F3}"/>
+    <hyperlink ref="K37" r:id="rId32" xr:uid="{0C576858-6705-4BFE-A321-44F2E2724C84}"/>
+    <hyperlink ref="K38" r:id="rId33" xr:uid="{8A895233-277C-4A30-91FF-6F258CEE3420}"/>
+    <hyperlink ref="K39" r:id="rId34" xr:uid="{09437E8D-CDA7-4C47-96C0-2D60B5DD0A11}"/>
     <hyperlink ref="J4" r:id="rId35" xr:uid="{5D4165D4-7BED-4701-AE55-99D81365B8AD}"/>
     <hyperlink ref="J5" r:id="rId36" xr:uid="{72F96557-61A9-452C-BEAE-536C40637B13}"/>
     <hyperlink ref="J6" r:id="rId37" xr:uid="{4A319B24-F7E5-4F74-A6E9-56F4DEDC3C02}"/>
@@ -2061,33 +2514,50 @@
     <hyperlink ref="J18" r:id="rId49" xr:uid="{F782D60C-5076-40D6-A6F2-5CA6FD40D1AC}"/>
     <hyperlink ref="J19" r:id="rId50" xr:uid="{F72E24F7-5BE4-481E-88A3-940E5B060615}"/>
     <hyperlink ref="J20" r:id="rId51" xr:uid="{E13D8905-D0D9-4F7A-A703-7B09EA773E0B}"/>
-    <hyperlink ref="J21" r:id="rId52" xr:uid="{A247D66A-B71C-4415-8289-78A3339676AF}"/>
-    <hyperlink ref="J22" r:id="rId53" xr:uid="{142FA887-780A-4563-BC71-74D7683B8351}"/>
-    <hyperlink ref="J23" r:id="rId54" xr:uid="{546DC2D9-1AED-4C32-9484-613972313F8B}"/>
-    <hyperlink ref="J24" r:id="rId55" xr:uid="{8A969F12-95CC-49BA-AAD0-41A9F7F6690A}"/>
-    <hyperlink ref="J25" r:id="rId56" xr:uid="{D777C2A7-25FF-48D4-96A4-D6AC9DFE2D16}"/>
-    <hyperlink ref="J26" r:id="rId57" xr:uid="{66ADECAD-0331-49B8-9578-26822BFB0FF9}"/>
-    <hyperlink ref="J27" r:id="rId58" xr:uid="{0B1631EE-5982-4D18-87DC-6B63EA55F5AE}"/>
-    <hyperlink ref="J28" r:id="rId59" xr:uid="{A7F0EA58-C9C4-42E6-9083-77B83636D14E}"/>
-    <hyperlink ref="J29" r:id="rId60" xr:uid="{23793F19-046B-4067-A6EB-6F6D3CD012F5}"/>
-    <hyperlink ref="J30" r:id="rId61" xr:uid="{D76EAD44-B2E7-4A13-94BC-4FCAA0D1F20F}"/>
-    <hyperlink ref="J31" r:id="rId62" xr:uid="{4DA8EDE9-DA18-407A-B0F6-1B18A6C43F60}"/>
-    <hyperlink ref="J32" r:id="rId63" xr:uid="{08B71E63-34DB-41C8-A87A-F433823F6FF8}"/>
-    <hyperlink ref="J33" r:id="rId64" xr:uid="{66956821-BF06-4250-81FA-0D22DA6F223A}"/>
-    <hyperlink ref="J34" r:id="rId65" xr:uid="{44AC9D71-38E5-40D2-97D7-ACE599AF45E5}"/>
-    <hyperlink ref="J35" r:id="rId66" xr:uid="{855546F9-9DCB-40A4-863D-68D246ACA413}"/>
+    <hyperlink ref="J25" r:id="rId52" xr:uid="{A247D66A-B71C-4415-8289-78A3339676AF}"/>
+    <hyperlink ref="J26" r:id="rId53" xr:uid="{142FA887-780A-4563-BC71-74D7683B8351}"/>
+    <hyperlink ref="J27" r:id="rId54" xr:uid="{546DC2D9-1AED-4C32-9484-613972313F8B}"/>
+    <hyperlink ref="J28" r:id="rId55" xr:uid="{8A969F12-95CC-49BA-AAD0-41A9F7F6690A}"/>
+    <hyperlink ref="J29" r:id="rId56" xr:uid="{D777C2A7-25FF-48D4-96A4-D6AC9DFE2D16}"/>
+    <hyperlink ref="J30" r:id="rId57" xr:uid="{66ADECAD-0331-49B8-9578-26822BFB0FF9}"/>
+    <hyperlink ref="J31" r:id="rId58" xr:uid="{0B1631EE-5982-4D18-87DC-6B63EA55F5AE}"/>
+    <hyperlink ref="J32" r:id="rId59" xr:uid="{A7F0EA58-C9C4-42E6-9083-77B83636D14E}"/>
+    <hyperlink ref="J33" r:id="rId60" xr:uid="{23793F19-046B-4067-A6EB-6F6D3CD012F5}"/>
+    <hyperlink ref="J34" r:id="rId61" xr:uid="{D76EAD44-B2E7-4A13-94BC-4FCAA0D1F20F}"/>
+    <hyperlink ref="J35" r:id="rId62" xr:uid="{4DA8EDE9-DA18-407A-B0F6-1B18A6C43F60}"/>
+    <hyperlink ref="J36" r:id="rId63" xr:uid="{08B71E63-34DB-41C8-A87A-F433823F6FF8}"/>
+    <hyperlink ref="J37" r:id="rId64" xr:uid="{66956821-BF06-4250-81FA-0D22DA6F223A}"/>
+    <hyperlink ref="J38" r:id="rId65" xr:uid="{44AC9D71-38E5-40D2-97D7-ACE599AF45E5}"/>
+    <hyperlink ref="J39" r:id="rId66" xr:uid="{855546F9-9DCB-40A4-863D-68D246ACA413}"/>
+    <hyperlink ref="K24" r:id="rId67" xr:uid="{5590E516-5556-4E82-876D-CB9CD93BA375}"/>
+    <hyperlink ref="K21" r:id="rId68" xr:uid="{4D90943A-40E4-4609-8421-259BDA0D7DE3}"/>
+    <hyperlink ref="K22" r:id="rId69" xr:uid="{2DF14057-9601-41D0-BCDB-7F6EAF9B17EE}"/>
+    <hyperlink ref="K23" r:id="rId70" xr:uid="{7886500B-9E43-4C55-8232-E9C0FA7CF011}"/>
+    <hyperlink ref="K44" r:id="rId71" xr:uid="{505B0614-3114-4BC9-913B-64AB72B664B3}"/>
+    <hyperlink ref="K42" r:id="rId72" xr:uid="{B4F612FE-9378-42A2-8364-B8267D207D3F}"/>
+    <hyperlink ref="K43" r:id="rId73" xr:uid="{6AAE625B-177D-4FB5-AF1B-94D26F3B58C8}"/>
+    <hyperlink ref="K40" r:id="rId74" xr:uid="{ED877A26-C299-44EE-9B68-CC2ED2783DEC}"/>
+    <hyperlink ref="K41" r:id="rId75" xr:uid="{82943E38-DE0C-4F3A-BE27-9AE2E0E1D85A}"/>
+    <hyperlink ref="J24" r:id="rId76" xr:uid="{F78F8875-3118-48F5-9BE8-D17B97EEB418}"/>
+    <hyperlink ref="J23" r:id="rId77" xr:uid="{F57282EB-FF43-46E4-B267-42E27EF9C55C}"/>
+    <hyperlink ref="J22" r:id="rId78" xr:uid="{6EF5EA06-8B10-452D-ACDD-577383A9F624}"/>
+    <hyperlink ref="J21" r:id="rId79" xr:uid="{4820058C-4287-4C92-84CC-B150041DB7B5}"/>
+    <hyperlink ref="J40" r:id="rId80" xr:uid="{CA407E77-1959-4E8C-B943-73B1E730E5E2}"/>
+    <hyperlink ref="J42" r:id="rId81" xr:uid="{CDA77423-38FF-434C-9564-E8FF2791AA9A}"/>
+    <hyperlink ref="J43" r:id="rId82" xr:uid="{BD458904-524B-4CE5-BC25-C607036CF1D4}"/>
+    <hyperlink ref="J44" r:id="rId83" xr:uid="{EA47ED13-144F-4159-B312-58B637B9DAB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B31A6F-7AB8-44A4-B605-E0E8BA8BF7DE}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,6 +2615,9 @@
       <c r="R1" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -2166,6 +2639,9 @@
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -2251,6 +2727,9 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2291,6 +2770,9 @@
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -2311,6 +2793,9 @@
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2354,6 +2839,9 @@
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
@@ -2374,6 +2862,9 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
@@ -2394,6 +2885,9 @@
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
@@ -2414,6 +2908,9 @@
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
@@ -2433,7 +2930,10 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
@@ -2453,7 +2953,10 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
@@ -2473,7 +2976,10 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
       <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
@@ -2493,7 +2999,10 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
@@ -2513,95 +3022,95 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="12">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
+      <c r="G21" s="7"/>
       <c r="J21" s="1" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="12">
+      <c r="D22" s="8">
         <v>1</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="J22" s="1" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="12">
-        <v>1</v>
-      </c>
+      <c r="G23" s="7"/>
       <c r="J23" s="1" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="12">
-        <v>1</v>
-      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7"/>
       <c r="J24" s="1" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2610,18 +3119,27 @@
       <c r="G25" s="12">
         <v>1</v>
       </c>
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="12">
@@ -2631,17 +3149,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="J26" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2651,57 +3169,60 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="12">
-        <v>1</v>
-      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="12">
+        <v>1</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="12">
@@ -2711,17 +3232,20 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="J30" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2731,40 +3255,43 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
       <c r="B32" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="12">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1</v>
-      </c>
+      <c r="G32" s="7"/>
       <c r="J32" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
       <c r="B33" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="12">
@@ -2774,17 +3301,20 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="J33" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
       <c r="B34" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="12">
@@ -2794,17 +3324,20 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="J34" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
       <c r="B35" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2814,130 +3347,218 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="J37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="J38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="12">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="21">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="J40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="J41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="11">
-        <f>SUM(C42:G42)</f>
-        <v>33</v>
-      </c>
-      <c r="C42" s="14">
-        <f>SUM(C9:C41)</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="14">
-        <f t="shared" ref="D42:I42" si="0">SUM(D3:D41)</f>
-        <v>16</v>
-      </c>
-      <c r="E42" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="14">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H42" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I42" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="J42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="12">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="12">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
@@ -2951,33 +3572,92 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+    <row r="46" spans="1:14" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="11">
+        <f>SUM(C46:G46)</f>
+        <v>42</v>
+      </c>
+      <c r="C46" s="14">
+        <f>SUM(C9:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="14">
+        <f t="shared" ref="D46:I46" si="0">SUM(D3:D45)</f>
+        <v>22</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="E47" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="A48" s="19">
+        <f>SUM(A1:A46)</f>
+        <v>31</v>
+      </c>
+      <c r="B48" s="6">
+        <v>23</v>
+      </c>
+      <c r="C48" s="6">
+        <f>A48-B48</f>
+        <v>8</v>
+      </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="E48" s="18">
+        <f>B46-A48</f>
+        <v>11</v>
+      </c>
+      <c r="F48" s="6">
+        <v>3</v>
+      </c>
+      <c r="G48" s="6">
+        <f>E48-F48</f>
+        <v>8</v>
+      </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
@@ -3060,6 +3740,46 @@
       <c r="G56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3081,21 +3801,21 @@
     <hyperlink ref="K18" r:id="rId16" xr:uid="{BDB3A5C5-3444-4DAC-B62B-3488A9B6BCFD}"/>
     <hyperlink ref="K19" r:id="rId17" xr:uid="{1E8A92C8-6897-4BCF-80EE-1EF779630131}"/>
     <hyperlink ref="K20" r:id="rId18" xr:uid="{0D232C21-9DFF-4676-8D3C-59BA178B005D}"/>
-    <hyperlink ref="K21" r:id="rId19" xr:uid="{88586E7A-48AE-49BD-A781-881E9C0BC62B}"/>
-    <hyperlink ref="K22" r:id="rId20" xr:uid="{C2075271-0F9A-49F3-B2B1-AB2A4AE08F9F}"/>
-    <hyperlink ref="K23" r:id="rId21" xr:uid="{E6402990-1E68-4968-A882-CCA5F276CC35}"/>
-    <hyperlink ref="K24" r:id="rId22" xr:uid="{FA92CCD9-03C5-43A4-B170-B76C73A3B608}"/>
-    <hyperlink ref="K25" r:id="rId23" xr:uid="{39B1250B-A4E2-430A-ADAD-D64A7460DA14}"/>
-    <hyperlink ref="K26" r:id="rId24" xr:uid="{51B78C13-F8C5-43D0-9FB8-DE0E6F4915A7}"/>
-    <hyperlink ref="K27" r:id="rId25" xr:uid="{EE5E0FF7-E2AB-462E-B6FB-07401A72988F}"/>
-    <hyperlink ref="K28" r:id="rId26" xr:uid="{466C95C5-E164-4369-A361-8D8F90151A1F}"/>
-    <hyperlink ref="K29" r:id="rId27" xr:uid="{70F2D42F-5A23-4683-80FE-24F0E456ED83}"/>
-    <hyperlink ref="K30" r:id="rId28" xr:uid="{91E9E7B8-9019-4925-8A97-7B7A628DDCCA}"/>
-    <hyperlink ref="K31" r:id="rId29" xr:uid="{8A4EE9C1-97E6-4E7A-8E06-15F6A10882E0}"/>
-    <hyperlink ref="K32" r:id="rId30" xr:uid="{95423B88-F6D2-4203-A573-A2B36D659E9B}"/>
-    <hyperlink ref="K33" r:id="rId31" xr:uid="{42C11787-F769-4198-88D9-AABA8716FB27}"/>
-    <hyperlink ref="K34" r:id="rId32" xr:uid="{4EFD9A1D-E6B7-4726-BF44-B9C3962379E4}"/>
-    <hyperlink ref="K35" r:id="rId33" xr:uid="{5D3637AC-5FEF-4F58-B5A7-B5B773545691}"/>
+    <hyperlink ref="K25" r:id="rId19" xr:uid="{88586E7A-48AE-49BD-A781-881E9C0BC62B}"/>
+    <hyperlink ref="K26" r:id="rId20" xr:uid="{C2075271-0F9A-49F3-B2B1-AB2A4AE08F9F}"/>
+    <hyperlink ref="K27" r:id="rId21" xr:uid="{E6402990-1E68-4968-A882-CCA5F276CC35}"/>
+    <hyperlink ref="K28" r:id="rId22" xr:uid="{FA92CCD9-03C5-43A4-B170-B76C73A3B608}"/>
+    <hyperlink ref="K29" r:id="rId23" xr:uid="{39B1250B-A4E2-430A-ADAD-D64A7460DA14}"/>
+    <hyperlink ref="K30" r:id="rId24" xr:uid="{51B78C13-F8C5-43D0-9FB8-DE0E6F4915A7}"/>
+    <hyperlink ref="K31" r:id="rId25" xr:uid="{EE5E0FF7-E2AB-462E-B6FB-07401A72988F}"/>
+    <hyperlink ref="K32" r:id="rId26" xr:uid="{466C95C5-E164-4369-A361-8D8F90151A1F}"/>
+    <hyperlink ref="K33" r:id="rId27" xr:uid="{70F2D42F-5A23-4683-80FE-24F0E456ED83}"/>
+    <hyperlink ref="K34" r:id="rId28" xr:uid="{91E9E7B8-9019-4925-8A97-7B7A628DDCCA}"/>
+    <hyperlink ref="K35" r:id="rId29" xr:uid="{8A4EE9C1-97E6-4E7A-8E06-15F6A10882E0}"/>
+    <hyperlink ref="K36" r:id="rId30" xr:uid="{95423B88-F6D2-4203-A573-A2B36D659E9B}"/>
+    <hyperlink ref="K37" r:id="rId31" xr:uid="{42C11787-F769-4198-88D9-AABA8716FB27}"/>
+    <hyperlink ref="K38" r:id="rId32" xr:uid="{4EFD9A1D-E6B7-4726-BF44-B9C3962379E4}"/>
+    <hyperlink ref="K39" r:id="rId33" xr:uid="{5D3637AC-5FEF-4F58-B5A7-B5B773545691}"/>
     <hyperlink ref="J3" r:id="rId34" xr:uid="{1615D5C2-C3B4-4185-801B-067B9EB4D290}"/>
     <hyperlink ref="J4" r:id="rId35" xr:uid="{A4AAB4B1-9041-4771-9A67-7293D619335C}"/>
     <hyperlink ref="J5" r:id="rId36" xr:uid="{EE0254CB-46DE-4974-B6B8-F8DA675D3EBB}"/>
@@ -3113,33 +3833,51 @@
     <hyperlink ref="J18" r:id="rId48" xr:uid="{2C27492C-7702-4008-AAE0-69D51A51D632}"/>
     <hyperlink ref="J19" r:id="rId49" xr:uid="{DD569594-3BBA-4DDA-B3C1-B9E08E5C4AFB}"/>
     <hyperlink ref="J20" r:id="rId50" xr:uid="{E8B194B3-D905-4BF0-A807-6F5F0DF48669}"/>
-    <hyperlink ref="J21" r:id="rId51" xr:uid="{BEFE8E7B-65FC-44CF-B8A7-3BD089AECF2E}"/>
-    <hyperlink ref="J22" r:id="rId52" xr:uid="{EE5B1DA5-4114-4FC8-B5D0-07D96925006A}"/>
-    <hyperlink ref="J23" r:id="rId53" xr:uid="{59C05391-B8A9-4D7C-B126-F15ECC119749}"/>
-    <hyperlink ref="J24" r:id="rId54" xr:uid="{B53D4A46-51D4-447F-89CB-2D52890DC034}"/>
-    <hyperlink ref="J25" r:id="rId55" xr:uid="{0A575873-985D-403D-8670-24CBA47781F8}"/>
-    <hyperlink ref="J26" r:id="rId56" xr:uid="{4185003B-B2C2-431A-B3AE-51C61E3F42AD}"/>
-    <hyperlink ref="J27" r:id="rId57" xr:uid="{243A52E1-382A-4F83-9B8D-5F8AA708CAF7}"/>
-    <hyperlink ref="J28" r:id="rId58" xr:uid="{E5FF62B4-E78B-4AD9-BBFD-40ACE7BB4972}"/>
-    <hyperlink ref="J29" r:id="rId59" xr:uid="{7F6FEA2E-4D9F-4BD0-9935-5AA6DFEFD19F}"/>
-    <hyperlink ref="J30" r:id="rId60" xr:uid="{A50842F0-D6D4-42D3-A66C-FACBE697D05E}"/>
-    <hyperlink ref="J31" r:id="rId61" xr:uid="{16BDF248-C6BF-4B05-A1C7-D37BA327572B}"/>
-    <hyperlink ref="J32" r:id="rId62" xr:uid="{EC083481-F979-4B83-8ECE-4EA9784F27E2}"/>
-    <hyperlink ref="J33" r:id="rId63" xr:uid="{67C8F9D9-802E-4784-9775-5BEF9504CFAB}"/>
-    <hyperlink ref="J34" r:id="rId64" xr:uid="{8C9EB31B-5227-4533-B4C6-77BAF9DD5CA9}"/>
-    <hyperlink ref="J35" r:id="rId65" xr:uid="{A5FCC1BA-C11C-4020-8CAB-DC7C9ACA21E0}"/>
+    <hyperlink ref="J25" r:id="rId51" xr:uid="{BEFE8E7B-65FC-44CF-B8A7-3BD089AECF2E}"/>
+    <hyperlink ref="J26" r:id="rId52" xr:uid="{EE5B1DA5-4114-4FC8-B5D0-07D96925006A}"/>
+    <hyperlink ref="J27" r:id="rId53" xr:uid="{59C05391-B8A9-4D7C-B126-F15ECC119749}"/>
+    <hyperlink ref="J28" r:id="rId54" xr:uid="{B53D4A46-51D4-447F-89CB-2D52890DC034}"/>
+    <hyperlink ref="J29" r:id="rId55" xr:uid="{0A575873-985D-403D-8670-24CBA47781F8}"/>
+    <hyperlink ref="J30" r:id="rId56" xr:uid="{4185003B-B2C2-431A-B3AE-51C61E3F42AD}"/>
+    <hyperlink ref="J31" r:id="rId57" xr:uid="{243A52E1-382A-4F83-9B8D-5F8AA708CAF7}"/>
+    <hyperlink ref="J32" r:id="rId58" xr:uid="{E5FF62B4-E78B-4AD9-BBFD-40ACE7BB4972}"/>
+    <hyperlink ref="J33" r:id="rId59" xr:uid="{7F6FEA2E-4D9F-4BD0-9935-5AA6DFEFD19F}"/>
+    <hyperlink ref="J34" r:id="rId60" xr:uid="{A50842F0-D6D4-42D3-A66C-FACBE697D05E}"/>
+    <hyperlink ref="J35" r:id="rId61" xr:uid="{16BDF248-C6BF-4B05-A1C7-D37BA327572B}"/>
+    <hyperlink ref="J36" r:id="rId62" xr:uid="{EC083481-F979-4B83-8ECE-4EA9784F27E2}"/>
+    <hyperlink ref="J37" r:id="rId63" xr:uid="{67C8F9D9-802E-4784-9775-5BEF9504CFAB}"/>
+    <hyperlink ref="J38" r:id="rId64" xr:uid="{8C9EB31B-5227-4533-B4C6-77BAF9DD5CA9}"/>
+    <hyperlink ref="J39" r:id="rId65" xr:uid="{A5FCC1BA-C11C-4020-8CAB-DC7C9ACA21E0}"/>
+    <hyperlink ref="K44" r:id="rId66" xr:uid="{82CB3C06-204F-4FCD-8C50-7C305A168C95}"/>
+    <hyperlink ref="K42" r:id="rId67" xr:uid="{2096B319-5AB5-4B6E-ACC6-527383C0AA26}"/>
+    <hyperlink ref="K43" r:id="rId68" xr:uid="{D3DFD219-AF46-49FB-8769-755CBBD24220}"/>
+    <hyperlink ref="K40" r:id="rId69" xr:uid="{507D0BBB-2405-4F37-9E52-102ACD8DCB52}"/>
+    <hyperlink ref="K41" r:id="rId70" xr:uid="{0775C458-166F-46E0-BFA8-F88D2CAAA481}"/>
+    <hyperlink ref="K24" r:id="rId71" xr:uid="{47F798AC-5460-458D-99B3-2989E36184DB}"/>
+    <hyperlink ref="K21" r:id="rId72" xr:uid="{939529BC-4E67-48E0-85E5-019DD416AB47}"/>
+    <hyperlink ref="K22" r:id="rId73" xr:uid="{E50A623E-EF65-4166-8CAB-7B529C16F0CA}"/>
+    <hyperlink ref="K23" r:id="rId74" xr:uid="{AFD04C0F-86C9-4358-AD22-07457C6C020F}"/>
+    <hyperlink ref="J44" r:id="rId75" xr:uid="{4C65AA20-76D4-474F-A80B-D2E12B7DF0A3}"/>
+    <hyperlink ref="J43" r:id="rId76" xr:uid="{B064B963-7ADA-4D2C-B576-12239B831E4C}"/>
+    <hyperlink ref="J42" r:id="rId77" xr:uid="{32B39DB6-B157-422B-A34D-587DEB5002FE}"/>
+    <hyperlink ref="J41" r:id="rId78" xr:uid="{389656AD-11D2-4546-A288-A74E41FC3EDF}"/>
+    <hyperlink ref="J40" r:id="rId79" xr:uid="{ABD71560-25B7-4C44-9BC4-EE420D318514}"/>
+    <hyperlink ref="J21" r:id="rId80" xr:uid="{70600944-A141-4996-A80E-AF7E1E058F99}"/>
+    <hyperlink ref="J22" r:id="rId81" xr:uid="{0CA30F99-F2F4-4843-9AC4-DAD7AF16F13E}"/>
+    <hyperlink ref="J23" r:id="rId82" xr:uid="{5ABB272D-B290-4432-9CA7-BC9E908C43C7}"/>
+    <hyperlink ref="J24" r:id="rId83" xr:uid="{436632BC-A37A-46DC-A16E-740104F52335}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3961121-91D7-45B0-8ED3-DE9C3F825D72}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,6 +3935,9 @@
       <c r="R1" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -3204,7 +3945,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7">
+      <c r="G3" s="12">
         <v>1</v>
       </c>
       <c r="H3" s="7">
@@ -3220,6 +3961,9 @@
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3227,7 +3971,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7">
+      <c r="G4" s="12">
         <v>1</v>
       </c>
       <c r="H4" s="7">
@@ -3305,6 +4049,9 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -3348,6 +4095,9 @@
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -3355,7 +4105,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="G10" s="12">
         <v>1</v>
       </c>
       <c r="H10" s="9">
@@ -3371,6 +4121,9 @@
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3411,6 +4164,9 @@
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
@@ -3418,7 +4174,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7">
+      <c r="G13" s="12">
         <v>1</v>
       </c>
       <c r="H13" s="9">
@@ -3434,6 +4190,9 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
@@ -3454,6 +4213,9 @@
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
@@ -3474,6 +4236,9 @@
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
@@ -3493,7 +4258,10 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
@@ -3513,7 +4281,10 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
@@ -3521,7 +4292,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7">
+      <c r="G18" s="12">
         <v>1</v>
       </c>
       <c r="J18" s="15" t="s">
@@ -3536,7 +4307,10 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
       <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
@@ -3556,7 +4330,10 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
@@ -3576,115 +4353,121 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="12">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>179</v>
+      <c r="G21" s="7"/>
+      <c r="J21" s="20" t="s">
+        <v>210</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="12">
+      <c r="D22" s="8">
         <v>1</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="J22" s="15" t="s">
-        <v>166</v>
+      <c r="J22" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="12">
-        <v>1</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>167</v>
+      <c r="G23" s="7"/>
+      <c r="J23" s="20" t="s">
+        <v>212</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="12">
-        <v>1</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>168</v>
+      <c r="G24" s="7"/>
+      <c r="J24" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
       <c r="J25" s="15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="12">
@@ -3694,57 +4477,60 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="J26" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="12">
-        <v>1</v>
-      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
       <c r="J27" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="L27" t="s">
+        <v>180</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="12">
-        <v>1</v>
-      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
       <c r="J28" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="12">
@@ -3754,17 +4540,20 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="J29" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="12">
@@ -3774,17 +4563,20 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="J30" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="12">
@@ -3794,17 +4586,20 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="J31" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
       <c r="B32" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="12">
@@ -3814,20 +4609,20 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="J32" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L32" t="s">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
       <c r="B33" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="12">
@@ -3837,17 +4632,20 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="J33" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
       <c r="B34" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="12">
@@ -3857,17 +4655,20 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="J34" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
       <c r="B35" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="12">
@@ -3877,130 +4678,227 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="J35" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
+      <c r="J36" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L36" t="s">
+        <v>182</v>
+      </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="J37" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="J38" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="J39" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="21">
+        <v>1</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="12">
+        <v>1</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L41" t="s">
+        <v>219</v>
+      </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="17">
-        <f>SUM(C42:G42)</f>
-        <v>33</v>
-      </c>
-      <c r="C42" s="14">
-        <f>SUM(C3:C35)</f>
-        <v>1</v>
-      </c>
-      <c r="D42" s="14">
-        <f>SUM(D3:D41)</f>
-        <v>22</v>
-      </c>
-      <c r="E42" s="14">
-        <f t="shared" ref="D42:I42" si="0">SUM(E3:E41)</f>
-        <v>2</v>
-      </c>
-      <c r="F42" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H42" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I42" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="J42" t="s">
+        <v>216</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="12">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>217</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L43" t="s">
+        <v>220</v>
+      </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="J44" t="s">
+        <v>218</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
@@ -4014,33 +4912,92 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+    <row r="46" spans="1:14" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="17">
+        <f>SUM(C46:G46)</f>
+        <v>42</v>
+      </c>
+      <c r="C46" s="14">
+        <f>SUM(C3:C39)</f>
+        <v>1</v>
+      </c>
+      <c r="D46" s="14">
+        <f>SUM(D3:D45)</f>
+        <v>28</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" ref="E46:I46" si="0">SUM(E3:E45)</f>
+        <v>2</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="E47" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="A48" s="19">
+        <f>SUM(A1:A46)</f>
+        <v>31</v>
+      </c>
+      <c r="B48" s="6">
+        <v>19</v>
+      </c>
+      <c r="C48" s="6">
+        <f>A48-B48</f>
+        <v>12</v>
+      </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="E48" s="18">
+        <f>B46-A48</f>
+        <v>11</v>
+      </c>
+      <c r="F48" s="6">
+        <v>5</v>
+      </c>
+      <c r="G48" s="6">
+        <f>E48-F48</f>
+        <v>6</v>
+      </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
@@ -4123,6 +5080,46 @@
       <c r="G56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4144,37 +5141,264 @@
     <hyperlink ref="K18" r:id="rId16" xr:uid="{5A00C17F-0B41-4D3E-ACA6-E5893193B9EF}"/>
     <hyperlink ref="K19" r:id="rId17" xr:uid="{91324530-F32C-4013-95D2-57842758C705}"/>
     <hyperlink ref="K20" r:id="rId18" xr:uid="{6FE8FAEE-CA2C-421E-BF52-5F7D8FCD090A}"/>
-    <hyperlink ref="K21" r:id="rId19" xr:uid="{D54C12EE-4039-45B4-A6F7-54194D4606FA}"/>
-    <hyperlink ref="K22" r:id="rId20" xr:uid="{E8942DDF-30D4-409B-A03B-FF508B9C76D7}"/>
-    <hyperlink ref="K23" r:id="rId21" xr:uid="{EAD06D15-CA10-4CA5-8BD0-8FB5B5D2A6A6}"/>
-    <hyperlink ref="K24" r:id="rId22" xr:uid="{A1B399D5-50AD-4E8B-8B70-A865AB2E1914}"/>
-    <hyperlink ref="K25" r:id="rId23" xr:uid="{9F94BBEE-5DD4-405B-BD6B-24DD4F1FF287}"/>
-    <hyperlink ref="K26" r:id="rId24" xr:uid="{06E7AFA3-D91D-4F23-8552-2EDC959A5EC7}"/>
-    <hyperlink ref="K27" r:id="rId25" xr:uid="{B3C791EA-82B3-46D7-92BF-2FC0DEEBCBF9}"/>
-    <hyperlink ref="K28" r:id="rId26" xr:uid="{F7926B2E-80B5-4DDE-BDED-A63F248528FC}"/>
-    <hyperlink ref="K29" r:id="rId27" xr:uid="{55BA3F52-51FA-408D-99A5-77EB0F4756E2}"/>
-    <hyperlink ref="K30" r:id="rId28" xr:uid="{86155F71-5EC0-42A0-AFFB-968FA9628FB6}"/>
-    <hyperlink ref="K31" r:id="rId29" xr:uid="{D68E4A4E-C554-43C6-B8C9-F4E26ACBCE11}"/>
-    <hyperlink ref="K32" r:id="rId30" xr:uid="{97D3D5D2-7D12-4AF0-978E-8D75D81C818C}"/>
-    <hyperlink ref="K33" r:id="rId31" xr:uid="{D14626CE-2A3A-43E9-8527-01ACD60D10AD}"/>
-    <hyperlink ref="K34" r:id="rId32" xr:uid="{86F08BF7-35D3-412A-85FB-582FB6D67082}"/>
-    <hyperlink ref="K35" r:id="rId33" xr:uid="{033E8B52-D495-434C-8BFE-AB4B3302CCA7}"/>
+    <hyperlink ref="K25" r:id="rId19" xr:uid="{D54C12EE-4039-45B4-A6F7-54194D4606FA}"/>
+    <hyperlink ref="K26" r:id="rId20" xr:uid="{E8942DDF-30D4-409B-A03B-FF508B9C76D7}"/>
+    <hyperlink ref="K27" r:id="rId21" xr:uid="{EAD06D15-CA10-4CA5-8BD0-8FB5B5D2A6A6}"/>
+    <hyperlink ref="K28" r:id="rId22" xr:uid="{A1B399D5-50AD-4E8B-8B70-A865AB2E1914}"/>
+    <hyperlink ref="K29" r:id="rId23" xr:uid="{9F94BBEE-5DD4-405B-BD6B-24DD4F1FF287}"/>
+    <hyperlink ref="K30" r:id="rId24" xr:uid="{06E7AFA3-D91D-4F23-8552-2EDC959A5EC7}"/>
+    <hyperlink ref="K31" r:id="rId25" xr:uid="{B3C791EA-82B3-46D7-92BF-2FC0DEEBCBF9}"/>
+    <hyperlink ref="K32" r:id="rId26" xr:uid="{F7926B2E-80B5-4DDE-BDED-A63F248528FC}"/>
+    <hyperlink ref="K33" r:id="rId27" xr:uid="{55BA3F52-51FA-408D-99A5-77EB0F4756E2}"/>
+    <hyperlink ref="K34" r:id="rId28" xr:uid="{86155F71-5EC0-42A0-AFFB-968FA9628FB6}"/>
+    <hyperlink ref="K35" r:id="rId29" xr:uid="{D68E4A4E-C554-43C6-B8C9-F4E26ACBCE11}"/>
+    <hyperlink ref="K36" r:id="rId30" xr:uid="{97D3D5D2-7D12-4AF0-978E-8D75D81C818C}"/>
+    <hyperlink ref="K37" r:id="rId31" xr:uid="{D14626CE-2A3A-43E9-8527-01ACD60D10AD}"/>
+    <hyperlink ref="K38" r:id="rId32" xr:uid="{86F08BF7-35D3-412A-85FB-582FB6D67082}"/>
+    <hyperlink ref="K39" r:id="rId33" xr:uid="{033E8B52-D495-434C-8BFE-AB4B3302CCA7}"/>
+    <hyperlink ref="K24" r:id="rId34" xr:uid="{E7CFD454-BEC9-499A-9FE2-9578EF7C0184}"/>
+    <hyperlink ref="K21" r:id="rId35" xr:uid="{E3D963EA-21F3-44E6-A2EC-439F4907FE73}"/>
+    <hyperlink ref="K22" r:id="rId36" xr:uid="{2284D285-0108-476F-845E-F3871E88271C}"/>
+    <hyperlink ref="K23" r:id="rId37" xr:uid="{559CD738-C853-40D9-B2E2-CE1421CA4837}"/>
+    <hyperlink ref="K44" r:id="rId38" xr:uid="{A0A4608B-356E-4319-A2FB-399B0B459862}"/>
+    <hyperlink ref="K42" r:id="rId39" xr:uid="{65403D46-A5E2-4CE4-837B-4C900A58908A}"/>
+    <hyperlink ref="K43" r:id="rId40" xr:uid="{0B72BD79-E02A-4084-959C-8A2B036C5129}"/>
+    <hyperlink ref="K40" r:id="rId41" xr:uid="{FE3E15A9-F1D6-4137-8A53-A77D01DD9FDC}"/>
+    <hyperlink ref="K41" r:id="rId42" xr:uid="{781B3726-F3AF-4F2B-B0ED-4B365067E709}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7917D1C-DBC5-4F83-9332-653444641524}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3">
+        <f>ChatGPT!B47</f>
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <f>ChatGPT!C47</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>ChatGPT!D47</f>
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <f>ChatGPT!E47</f>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f>ChatGPT!F47</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>ChatGPT!G47</f>
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <f>ChatGPT!H47</f>
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <f>ChatGPT!I47</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4">
+        <f>'Google Bard'!B46</f>
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <f>'Google Bard'!C46</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>'Google Bard'!D46</f>
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <f>'Google Bard'!E46</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>'Google Bard'!F46</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>'Google Bard'!G46</f>
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <f>'Google Bard'!H46</f>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f>'Google Bard'!I46</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5">
+        <f>Copilot!B46</f>
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <f>Copilot!C46</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>Copilot!D46</f>
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <f>Copilot!E46</f>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f>Copilot!F46</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>Copilot!G46</f>
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <f>Copilot!H46</f>
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f>Copilot!I46</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:I7" si="0">AVERAGE(C3:C6)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <f>B12+C12</f>
+        <v>31</v>
+      </c>
+      <c r="B12" s="6">
+        <f>(ChatGPT!B49 + 'Google Bard'!B48 + Copilot!B48 )/3</f>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="C12" s="6">
+        <f>(ChatGPT!C49 + 'Google Bard'!C48 + Copilot!C48 )/3</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="18">
+        <f>F12+G12</f>
+        <v>15.666666666666668</v>
+      </c>
+      <c r="F12" s="6">
+        <f>(ChatGPT!E49 + 'Google Bard'!E48 + Copilot!E48 )/3</f>
+        <v>11</v>
+      </c>
+      <c r="G12" s="6">
+        <f>(ChatGPT!F49 + 'Google Bard'!F48 + Copilot!F48 )/3</f>
+        <v>4.666666666666667</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
